--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project x\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32032714-D1C6-42F9-9448-437E52D16CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43534426-557B-411F-818C-2BADCA8BCBA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{0AFDD312-DCBE-40DE-9851-59625C1673A3}"/>
   </bookViews>
@@ -22921,12 +22921,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC093899-43B0-4F81-BD69-3179AA640D8E}">
   <dimension ref="A1:Y1115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1071" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="A199" sqref="A199:XFD199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="32.21875" customWidth="1"/>
     <col min="23" max="23" width="8.88671875" style="1"/>
   </cols>
   <sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project x\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4A92F06-9873-4C78-894F-FC784FC1E741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27C0D099-0BDC-419E-9EB4-91D65FC6C6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{278252C4-01F0-4D89-8535-AB9ACFC3E1E0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{252B00C2-A81B-40BB-B631-9A943669E1C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="1179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="1180">
   <si>
     <t>ID</t>
   </si>
@@ -3328,6 +3328,9 @@
   </si>
   <si>
     <t>يوسف صبرى منصور عبد الوكيل محمد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value </t>
   </si>
   <si>
     <t>يوسف صلاح الدين محمد سعيد علي</t>
@@ -3954,11 +3957,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9736446E-239A-450E-9A88-C4A1AFB24CAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D1125F9-57B2-4A14-9688-1536085228BA}">
   <dimension ref="A1:E1115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3971,13 +3974,13 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="D1" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="E1" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -22132,8 +22135,8 @@
       <c r="D1069">
         <v>965</v>
       </c>
-      <c r="E1069">
-        <v>1077</v>
+      <c r="E1069" t="e">
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="1070" spans="1:5" x14ac:dyDescent="0.3">
@@ -22359,7 +22362,7 @@
     </row>
     <row r="1083" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1083" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B1083">
         <v>412</v>
@@ -22376,7 +22379,7 @@
     </row>
     <row r="1084" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1084" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="B1084">
         <v>299</v>
@@ -22393,7 +22396,7 @@
     </row>
     <row r="1085" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1085" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="B1085">
         <v>869</v>
@@ -22410,7 +22413,7 @@
     </row>
     <row r="1086" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1086" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="B1086">
         <v>225</v>
@@ -22427,7 +22430,7 @@
     </row>
     <row r="1087" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1087" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B1087">
         <v>109</v>
@@ -22444,7 +22447,7 @@
     </row>
     <row r="1088" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1088" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="B1088">
         <v>1095</v>
@@ -22461,7 +22464,7 @@
     </row>
     <row r="1089" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1089" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="B1089">
         <v>23</v>
@@ -22478,7 +22481,7 @@
     </row>
     <row r="1090" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1090" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B1090">
         <v>253</v>
@@ -22495,7 +22498,7 @@
     </row>
     <row r="1091" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1091" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="B1091">
         <v>455</v>
@@ -22512,7 +22515,7 @@
     </row>
     <row r="1092" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1092" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B1092">
         <v>753</v>
@@ -22529,7 +22532,7 @@
     </row>
     <row r="1093" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1093" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="B1093">
         <v>178</v>
@@ -22546,7 +22549,7 @@
     </row>
     <row r="1094" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1094" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="B1094">
         <v>1036</v>
@@ -22563,7 +22566,7 @@
     </row>
     <row r="1095" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1095" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="B1095">
         <v>1032</v>
@@ -22580,7 +22583,7 @@
     </row>
     <row r="1096" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1096" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="B1096">
         <v>562</v>
@@ -22597,7 +22600,7 @@
     </row>
     <row r="1097" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1097" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="B1097">
         <v>475</v>
@@ -22614,7 +22617,7 @@
     </row>
     <row r="1098" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1098" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B1098">
         <v>1021</v>
@@ -22631,7 +22634,7 @@
     </row>
     <row r="1099" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1099" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="B1099">
         <v>3</v>
@@ -22648,7 +22651,7 @@
     </row>
     <row r="1100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1100" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B1100">
         <v>8</v>
@@ -22665,7 +22668,7 @@
     </row>
     <row r="1101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1101" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B1101">
         <v>464</v>
@@ -22682,7 +22685,7 @@
     </row>
     <row r="1102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1102" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="B1102">
         <v>942</v>
@@ -22699,7 +22702,7 @@
     </row>
     <row r="1103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1103" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="B1103">
         <v>122</v>
@@ -22716,7 +22719,7 @@
     </row>
     <row r="1104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1104" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="B1104">
         <v>692</v>
@@ -22733,7 +22736,7 @@
     </row>
     <row r="1105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1105" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="B1105">
         <v>59</v>
@@ -22750,7 +22753,7 @@
     </row>
     <row r="1106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1106" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="B1106">
         <v>173</v>
@@ -22767,7 +22770,7 @@
     </row>
     <row r="1107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1107" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="B1107">
         <v>565</v>
@@ -22784,7 +22787,7 @@
     </row>
     <row r="1108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1108" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="B1108">
         <v>930</v>
@@ -22801,7 +22804,7 @@
     </row>
     <row r="1109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1109" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="B1109">
         <v>611</v>
@@ -22818,7 +22821,7 @@
     </row>
     <row r="1110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1110" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="B1110">
         <v>330</v>
@@ -22835,7 +22838,7 @@
     </row>
     <row r="1111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1111" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="B1111">
         <v>1000</v>
@@ -22852,7 +22855,7 @@
     </row>
     <row r="1112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1112" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="B1112">
         <v>992</v>
@@ -22869,7 +22872,7 @@
     </row>
     <row r="1113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1113" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="B1113">
         <v>1111</v>
@@ -22886,7 +22889,7 @@
     </row>
     <row r="1114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1114" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="B1114">
         <v>155</v>
@@ -22903,7 +22906,7 @@
     </row>
     <row r="1115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1115" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="B1115">
         <v>459</v>
@@ -22924,11 +22927,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15941971-3529-4209-A75C-6A800CCE60F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78BD8D4-43E5-4157-B769-544C484AF958}">
   <dimension ref="A1:Y1115"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:W1048576"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -105224,8 +105227,8 @@
       <c r="Q1069">
         <v>975</v>
       </c>
-      <c r="R1069">
-        <v>0</v>
+      <c r="R1069" t="s">
+        <v>1097</v>
       </c>
       <c r="S1069">
         <v>24</v>
@@ -105236,17 +105239,17 @@
       <c r="U1069">
         <v>19</v>
       </c>
-      <c r="V1069">
-        <v>1078</v>
-      </c>
-      <c r="W1069" s="1">
-        <v>0.38739669421487605</v>
-      </c>
-      <c r="X1069">
-        <v>1406.25</v>
-      </c>
-      <c r="Y1069">
-        <v>1077</v>
+      <c r="V1069" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W1069" s="1" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="X1069" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y1069" t="e">
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="1070" spans="1:25" x14ac:dyDescent="0.3">
@@ -105254,7 +105257,7 @@
         <v>1907</v>
       </c>
       <c r="B1070" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C1070">
         <v>591.75</v>
@@ -105331,7 +105334,7 @@
         <v>1908</v>
       </c>
       <c r="B1071" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="C1071">
         <v>553.25</v>
@@ -105408,7 +105411,7 @@
         <v>1910</v>
       </c>
       <c r="B1072" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="C1072">
         <v>616</v>
@@ -105485,7 +105488,7 @@
         <v>1911</v>
       </c>
       <c r="B1073" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="C1073">
         <v>636.5</v>
@@ -105562,7 +105565,7 @@
         <v>1912</v>
       </c>
       <c r="B1074" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="C1074">
         <v>563</v>
@@ -105639,7 +105642,7 @@
         <v>1916</v>
       </c>
       <c r="B1075" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="C1075">
         <v>586.83000000000004</v>
@@ -105716,7 +105719,7 @@
         <v>1917</v>
       </c>
       <c r="B1076" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="C1076">
         <v>628</v>
@@ -105793,7 +105796,7 @@
         <v>1919</v>
       </c>
       <c r="B1077" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="C1077">
         <v>508</v>
@@ -105870,7 +105873,7 @@
         <v>1920</v>
       </c>
       <c r="B1078" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C1078">
         <v>619</v>
@@ -105947,7 +105950,7 @@
         <v>1922</v>
       </c>
       <c r="B1079" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="C1079">
         <v>581</v>
@@ -106024,7 +106027,7 @@
         <v>1923</v>
       </c>
       <c r="B1080" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="C1080">
         <v>662</v>
@@ -106101,7 +106104,7 @@
         <v>1927</v>
       </c>
       <c r="B1081" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="C1081">
         <v>638</v>
@@ -106178,7 +106181,7 @@
         <v>2065</v>
       </c>
       <c r="B1082" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="C1082">
         <v>492.5</v>
@@ -106252,10 +106255,10 @@
     </row>
     <row r="1083" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1083" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B1083" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="C1083">
         <v>589</v>
@@ -106329,10 +106332,10 @@
     </row>
     <row r="1084" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1084" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="B1084" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="C1084">
         <v>606.4</v>
@@ -106406,10 +106409,10 @@
     </row>
     <row r="1085" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1085" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="B1085" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="C1085">
         <v>490.9</v>
@@ -106483,10 +106486,10 @@
     </row>
     <row r="1086" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1086" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="B1086" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="C1086">
         <v>614.4</v>
@@ -106560,10 +106563,10 @@
     </row>
     <row r="1087" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1087" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B1087" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="C1087">
         <v>633.9</v>
@@ -106637,10 +106640,10 @@
     </row>
     <row r="1088" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1088" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="B1088" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="C1088">
         <v>412.75</v>
@@ -106714,10 +106717,10 @@
     </row>
     <row r="1089" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1089" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="B1089" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="C1089">
         <v>655</v>
@@ -106791,10 +106794,10 @@
     </row>
     <row r="1090" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1090" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B1090" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="C1090">
         <v>612.5</v>
@@ -106868,10 +106871,10 @@
     </row>
     <row r="1091" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1091" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="B1091" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="C1091">
         <v>582.5</v>
@@ -106945,10 +106948,10 @@
     </row>
     <row r="1092" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1092" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B1092" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="C1092">
         <v>515</v>
@@ -107022,10 +107025,10 @@
     </row>
     <row r="1093" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1093" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="B1093" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="C1093">
         <v>619.79999999999995</v>
@@ -107099,10 +107102,10 @@
     </row>
     <row r="1094" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1094" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="B1094" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C1094">
         <v>435.85</v>
@@ -107176,10 +107179,10 @@
     </row>
     <row r="1095" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1095" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="B1095" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="C1095">
         <v>431.1</v>
@@ -107253,10 +107256,10 @@
     </row>
     <row r="1096" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1096" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="B1096" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="C1096">
         <v>566.70000000000005</v>
@@ -107330,10 +107333,10 @@
     </row>
     <row r="1097" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1097" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="B1097" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="C1097">
         <v>579</v>
@@ -107407,10 +107410,10 @@
     </row>
     <row r="1098" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1098" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B1098" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="C1098">
         <v>448.5</v>
@@ -107481,10 +107484,10 @@
     </row>
     <row r="1099" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1099" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="B1099" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="C1099">
         <v>662</v>
@@ -107558,10 +107561,10 @@
     </row>
     <row r="1100" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1100" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B1100" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="C1100">
         <v>655.5</v>
@@ -107635,10 +107638,10 @@
     </row>
     <row r="1101" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1101" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B1101" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="C1101">
         <v>582</v>
@@ -107712,10 +107715,10 @@
     </row>
     <row r="1102" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1102" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="B1102" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="C1102">
         <v>480.5</v>
@@ -107789,10 +107792,10 @@
     </row>
     <row r="1103" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1103" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="B1103" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="C1103">
         <v>632</v>
@@ -107866,10 +107869,10 @@
     </row>
     <row r="1104" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1104" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="B1104" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="C1104">
         <v>532.5</v>
@@ -107943,10 +107946,10 @@
     </row>
     <row r="1105" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1105" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="B1105" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="C1105">
         <v>642.9</v>
@@ -108020,10 +108023,10 @@
     </row>
     <row r="1106" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1106" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="B1106" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="C1106">
         <v>627.9</v>
@@ -108097,10 +108100,10 @@
     </row>
     <row r="1107" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1107" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="B1107" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="C1107">
         <v>573.4</v>
@@ -108174,10 +108177,10 @@
     </row>
     <row r="1108" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1108" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="B1108" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="C1108">
         <v>474.9</v>
@@ -108251,10 +108254,10 @@
     </row>
     <row r="1109" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1109" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="B1109" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="C1109">
         <v>553.9</v>
@@ -108328,10 +108331,10 @@
     </row>
     <row r="1110" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1110" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="B1110" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="C1110">
         <v>602.5</v>
@@ -108405,10 +108408,10 @@
     </row>
     <row r="1111" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1111" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="B1111" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="C1111">
         <v>442.8</v>
@@ -108482,10 +108485,10 @@
     </row>
     <row r="1112" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1112" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="B1112" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="C1112">
         <v>439</v>
@@ -108559,10 +108562,10 @@
     </row>
     <row r="1113" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1113" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="B1113" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="C1113">
         <v>305.5</v>
@@ -108636,10 +108639,10 @@
     </row>
     <row r="1114" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1114" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="B1114" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="C1114">
         <v>627.5</v>
@@ -108713,10 +108716,10 @@
     </row>
     <row r="1115" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1115" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="B1115" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="C1115">
         <v>580.75</v>
